--- a/media/shoblons/hospital/oth/a_oth_20.xlsx
+++ b/media/shoblons/hospital/oth/a_oth_20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Отчет по Эндоскопической хирургической работе </t>
   </si>
@@ -28,22 +28,33 @@
     <t xml:space="preserve">ГБУЗ ТО "Областная клиническая больница № 2"</t>
   </si>
   <si>
+    <t xml:space="preserve">УСЛОВИЕ ОТБОРА:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Отделение</t>
   </si>
   <si>
     <t xml:space="preserve">Профиль койки</t>
   </si>
   <si>
-    <t xml:space="preserve">Колич-во проопер-ч эндоскоп.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Колич-во эндоскоп.операции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кол-во п/о осложнений при энд.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сред.к/дн проопер-ч эндоскоп.</t>
+    <t xml:space="preserve">Колич-во
+Проопер-ч
+Эндоскоп.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колич-во
+Эндоскоп.
+Операции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кол-во п/о
+Осложнений
+При энд.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сред.к/дн
+Проопер-ч
+Эндоскоп.</t>
   </si>
 </sst>
 </file>
@@ -53,12 +64,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -74,18 +84,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,10 +103,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -137,32 +135,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,35 +173,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="18.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.41"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -216,16 +210,20 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -234,57 +232,88 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.0784722222222222" right="0.0784722222222222" top="0.7875" bottom="1.05277777777778" header="0.511811023622047" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="55" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.886111111111111" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="true" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <firstHeader/>
+    <firstFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</firstFooter>
   </headerFooter>
 </worksheet>
 </file>